--- a/resources/test_data.xlsx
+++ b/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupamdasgupta\eclipse-workspace\exit_test_selenium\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953E1BC4-6EF7-4B05-A14A-4B3E7777A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B399D5-56A8-40E5-9E2F-8C8F84C08700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4908" yWindow="2808" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>password</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,12 +403,6 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8918214738</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -427,6 +424,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8918214738</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -472,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
